--- a/data.xlsx
+++ b/data.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/ch704_bath_ac_uk/Documents/CV/BoE/Senior Analyst, Future of Cash - Notes Directorate/interview/files sent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{223A8F33-72C4-46BD-9E66-72CDABABF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2C7FD42-DF08-49F8-85CB-00B836C9DB8D}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{223A8F33-72C4-46BD-9E66-72CDABABF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFE74A02-78A9-45B8-9034-3B9DF30E2334}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{788B732F-1436-4867-B2C1-3A732B776CA7}"/>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{40E723D5-1947-4C89-8A39-F2C304A3A6E1}"/>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{C2667252-711C-4967-9AF0-23DAC059CE38}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{788B732F-1436-4867-B2C1-3A732B776CA7}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{40E723D5-1947-4C89-8A39-F2C304A3A6E1}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{C2667252-711C-4967-9AF0-23DAC059CE38}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sources" sheetId="3" r:id="rId1"/>
     <sheet name="Note in circulation data" sheetId="1" r:id="rId2"/>
     <sheet name="Inflation data" sheetId="2" r:id="rId3"/>
-    <sheet name="pre 1993" sheetId="7" r:id="rId4"/>
+    <sheet name="data" sheetId="7" r:id="rId4"/>
     <sheet name="data for R" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="277">
   <si>
     <t>From the Bank of England Annual Reports, end of February observation</t>
   </si>
@@ -903,6 +903,9 @@
   </si>
   <si>
     <t>Growth rate of note in circulation</t>
+  </si>
+  <si>
+    <t>S.D. pre1993</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1095,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1140,13 +1143,22 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1155,18 +1167,11 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 12" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1242,7 +1247,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre 1993'!$B$1</c:f>
+              <c:f>data!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1265,7 +1270,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'pre 1993'!$A$2:$A$51</c:f>
+              <c:f>data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1424,7 +1429,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre 1993'!$B$3:$B$51</c:f>
+              <c:f>data!$B$3:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="49"/>
@@ -1590,7 +1595,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre 1993'!$J$1</c:f>
+              <c:f>data!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1613,7 +1618,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'pre 1993'!$A$2:$A$51</c:f>
+              <c:f>data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1772,7 +1777,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre 1993'!$J$3:$J$51</c:f>
+              <c:f>data!$J$3:$J$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
@@ -1938,7 +1943,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre 1993'!$C$1</c:f>
+              <c:f>data!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1961,7 +1966,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'pre 1993'!$A$2:$A$51</c:f>
+              <c:f>data!$A$2:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2120,7 +2125,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre 1993'!$C$1:$C$51</c:f>
+              <c:f>data!$C$1:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2567,7 +2572,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre 1993'!$B$1</c:f>
+              <c:f>data!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2590,10 +2595,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'pre 1993'!$A$3:$A$51</c:f>
+              <c:f>data!$A$3:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>1944</c:v>
                 </c:pt>
@@ -2740,16 +2745,97 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre 1993'!$B$3:$B$51</c:f>
+              <c:f>data!$B$3:$B$78</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>2.7</c:v>
                 </c:pt>
@@ -2896,6 +2982,87 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,7 +3079,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre 1993'!$C$1</c:f>
+              <c:f>data!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2935,10 +3102,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'pre 1993'!$A$3:$A$51</c:f>
+              <c:f>data!$A$3:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>1944</c:v>
                 </c:pt>
@@ -3085,16 +3252,97 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre 1993'!$C$3:$C$51</c:f>
+              <c:f>data!$C$3:$C$78</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>18.192619026895308</c:v>
                 </c:pt>
@@ -3241,6 +3489,87 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4.8520325203252002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.2360275417157709</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1694596554102432</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.2005709791126398</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.8164110743737645</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.025651465798038</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.9838442946190016</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.2828265670120667</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3835108099386817</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.1957429878655184</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.0492737635594835</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>15.253199019874764</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.3455973542786204</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.6631958906011435</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.2297266772080455</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.1583139188383855</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.980935785065942</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.070612299346358</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.3163265306122458</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.930704898446824</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.224738475686852</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.6462919466142347</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.7503016097342412</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9653144622744847</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.3161360109109665</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.93299713940252</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.1040192354976384E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.2573378839590532</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3257,7 +3586,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'pre 1993'!$J$1</c:f>
+              <c:f>data!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3280,10 +3609,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'pre 1993'!$A$3:$A$51</c:f>
+              <c:f>data!$A$3:$A$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>1944</c:v>
                 </c:pt>
@@ -3430,16 +3759,97 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'pre 1993'!$J$3:$J$51</c:f>
+              <c:f>data!$J$3:$J$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="76"/>
                 <c:pt idx="0">
                   <c:v>23.195017771445812</c:v>
                 </c:pt>
@@ -3586,6 +3996,87 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.3646513935985372</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.3771214099216795</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.6219780740179406</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7.1230809852514065</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.1382095607653628</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.9609729041361561</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.5974472278621743</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.6469555917785454</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.7558096343438354</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.0500937768740677</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.1662080394065306</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.8375504638899862</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.5628538122052715</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.8423188123650096</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.5215415138236903</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.7754827824217472</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.4180008402948694</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.1504498633790732</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.5936711679351214</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.9961629862881534</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.7655062087102813</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.9711378135151927</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.9207053412344974</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.9255190876606356</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.3577352665154176</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.601779895598491</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-1.6592054818105662</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.45710773593732323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5529,12 +6020,12 @@
       <c r="H8" s="17">
         <v>100</v>
       </c>
-      <c r="I8" s="40" t="s">
+      <c r="I8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
     </row>
@@ -5616,12 +6107,12 @@
       <c r="H12" s="14">
         <v>14.6</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="34">
         <v>33.200000000000003</v>
       </c>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="14">
         <v>434.5</v>
       </c>
@@ -5655,12 +6146,12 @@
       <c r="H13" s="14">
         <v>14.2</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="35">
         <v>29.7</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
       <c r="M13" s="14">
         <v>398.8</v>
       </c>
@@ -5694,12 +6185,12 @@
       <c r="H14" s="14">
         <v>14.4</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="35">
         <v>29</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
       <c r="M14" s="14">
         <v>386.2</v>
       </c>
@@ -5733,12 +6224,12 @@
       <c r="H15" s="14">
         <v>14.2</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="35">
         <v>30.1</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
       <c r="M15" s="14">
         <v>389.4</v>
       </c>
@@ -5773,12 +6264,12 @@
       <c r="H16" s="14">
         <v>12.3</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="35">
         <v>27.9</v>
       </c>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
       <c r="M16" s="14">
         <v>382.5</v>
       </c>
@@ -5813,12 +6304,12 @@
       <c r="H17" s="14">
         <v>11.8</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="35">
         <v>23.7</v>
       </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
       <c r="M17" s="14">
         <v>375</v>
       </c>
@@ -5853,12 +6344,12 @@
       <c r="H18" s="14">
         <v>11.5</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="35">
         <v>24.4</v>
       </c>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
       <c r="M18" s="14">
         <v>373.3</v>
       </c>
@@ -5893,12 +6384,12 @@
       <c r="H19" s="14">
         <v>11.5</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="35">
         <v>30.7</v>
       </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
       <c r="M19" s="14">
         <v>371.9</v>
       </c>
@@ -5933,12 +6424,12 @@
       <c r="H20" s="14">
         <v>11.1</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="35">
         <v>28.6</v>
       </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
       <c r="M20" s="14">
         <v>362.3</v>
       </c>
@@ -5973,12 +6464,12 @@
       <c r="H21" s="14">
         <v>10.9</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="35">
         <v>29</v>
       </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="14">
         <v>358.6</v>
       </c>
@@ -6013,12 +6504,12 @@
       <c r="H22" s="14">
         <v>11.3</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="35">
         <v>24.7</v>
       </c>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="14">
         <v>354.8</v>
       </c>
@@ -6053,12 +6544,12 @@
       <c r="H23" s="14">
         <v>11.8</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="35">
         <v>28.1</v>
       </c>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="14">
         <v>359.5</v>
       </c>
@@ -6093,12 +6584,12 @@
       <c r="H24" s="14">
         <v>13</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="35">
         <v>34</v>
       </c>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
       <c r="M24" s="14">
         <v>371.2</v>
       </c>
@@ -6133,12 +6624,12 @@
       <c r="H25" s="14">
         <v>13.2</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="35">
         <v>33.299999999999997</v>
       </c>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="14">
         <v>378.7</v>
       </c>
@@ -6173,12 +6664,12 @@
       <c r="H26" s="13">
         <v>14.5</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="36">
         <v>32.5</v>
       </c>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="13">
         <v>394.7</v>
       </c>
@@ -6213,12 +6704,12 @@
       <c r="H27" s="13">
         <v>23</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="36">
         <v>37</v>
       </c>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="13">
         <v>431.4</v>
       </c>
@@ -6253,12 +6744,12 @@
       <c r="H28" s="13">
         <v>36.9</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="36">
         <v>43.3</v>
       </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="13">
         <v>479.6</v>
       </c>
@@ -6293,12 +6784,12 @@
       <c r="H29" s="13">
         <v>34.5</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="36">
         <v>42</v>
       </c>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="13">
         <v>485.6</v>
       </c>
@@ -6333,12 +6824,12 @@
       <c r="H30" s="13">
         <v>25.6</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="36">
         <v>38.200000000000003</v>
       </c>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
       <c r="M30" s="13">
         <v>507.3</v>
       </c>
@@ -6373,12 +6864,12 @@
       <c r="H31" s="13">
         <v>22</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="36">
         <v>34.5</v>
       </c>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
       <c r="M31" s="13">
         <v>574.70000000000005</v>
       </c>
@@ -6413,12 +6904,12 @@
       <c r="H32" s="13">
         <v>22.4</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="36">
         <v>34</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="13">
         <v>652.20000000000005</v>
       </c>
@@ -6453,12 +6944,12 @@
       <c r="H33" s="13">
         <v>24.3</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="36">
         <v>44.9</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="13">
         <v>808.3</v>
       </c>
@@ -6493,12 +6984,12 @@
       <c r="H34" s="13">
         <v>19.7</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="36">
         <v>54.6</v>
       </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="13">
         <v>966.3</v>
       </c>
@@ -6532,12 +7023,12 @@
       <c r="H35" s="13">
         <v>15.1</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="36">
         <v>59.8</v>
       </c>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="13">
         <v>1135.7</v>
       </c>
@@ -6571,12 +7062,12 @@
       <c r="H36" s="13">
         <v>10.8</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="36">
         <v>65.7</v>
       </c>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="13">
         <v>1284.2</v>
       </c>
@@ -7898,13 +8389,13 @@
       <c r="F69" s="8">
         <v>0.15</v>
       </c>
-      <c r="G69" s="35">
+      <c r="G69" s="37">
         <v>0.83499999999999996</v>
       </c>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
       <c r="L69" s="8">
         <v>117.66500000000001</v>
       </c>
@@ -7935,13 +8426,13 @@
       <c r="F70" s="8">
         <v>0.15</v>
       </c>
-      <c r="G70" s="35">
+      <c r="G70" s="37">
         <v>0.82399999999999995</v>
       </c>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
       <c r="L70" s="8">
         <v>139.79</v>
       </c>
@@ -7972,13 +8463,13 @@
       <c r="F71" s="2">
         <v>76.677999999999997</v>
       </c>
-      <c r="G71" s="35">
+      <c r="G71" s="37">
         <v>0.79600000000000004</v>
       </c>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
       <c r="L71" s="8">
         <v>158.34</v>
       </c>
@@ -8009,13 +8500,13 @@
       <c r="F72" s="2">
         <v>145.27099999999999</v>
       </c>
-      <c r="G72" s="35">
+      <c r="G72" s="37">
         <v>0.75700000000000001</v>
       </c>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
       <c r="L72" s="8">
         <v>137.97499999999999</v>
       </c>
@@ -8046,13 +8537,13 @@
       <c r="F73" s="2">
         <v>224.27699999999999</v>
       </c>
-      <c r="G73" s="35">
+      <c r="G73" s="37">
         <v>0.72199999999999998</v>
       </c>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
       <c r="L73" s="8">
         <v>152.15</v>
       </c>
@@ -8083,13 +8574,13 @@
       <c r="F74" s="2">
         <v>324.488</v>
       </c>
-      <c r="G74" s="35">
+      <c r="G74" s="37">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
       <c r="L74" s="8">
         <v>171.65</v>
       </c>
@@ -8120,13 +8611,13 @@
       <c r="F75" s="2">
         <v>397.05599999999998</v>
       </c>
-      <c r="G75" s="36">
+      <c r="G75" s="39">
         <v>0.65600000000000003</v>
       </c>
-      <c r="H75" s="36"/>
-      <c r="I75" s="36"/>
-      <c r="J75" s="36"/>
-      <c r="K75" s="36"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
       <c r="L75" s="7">
         <v>232.52500000000001</v>
       </c>
@@ -8157,14 +8648,14 @@
       <c r="F76" s="6">
         <v>500</v>
       </c>
-      <c r="G76" s="34">
+      <c r="G76" s="38">
         <v>280</v>
       </c>
-      <c r="H76" s="34"/>
-      <c r="I76" s="34"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="34"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="38"/>
       <c r="M76" s="4">
         <v>6042</v>
       </c>
@@ -8192,14 +8683,14 @@
       <c r="F77" s="6">
         <v>652</v>
       </c>
-      <c r="G77" s="34">
+      <c r="G77" s="38">
         <v>261</v>
       </c>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38"/>
+      <c r="K77" s="38"/>
+      <c r="L77" s="38"/>
       <c r="M77" s="4">
         <v>6758</v>
       </c>
@@ -8227,14 +8718,14 @@
       <c r="F78" s="6">
         <v>852</v>
       </c>
-      <c r="G78" s="34">
+      <c r="G78" s="38">
         <v>314</v>
       </c>
-      <c r="H78" s="34"/>
-      <c r="I78" s="34"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="34"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="38"/>
       <c r="M78" s="4">
         <v>7776</v>
       </c>
@@ -8262,14 +8753,14 @@
       <c r="F79" s="6">
         <v>1125</v>
       </c>
-      <c r="G79" s="34">
+      <c r="G79" s="38">
         <v>338</v>
       </c>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="34"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="38"/>
       <c r="M79" s="4">
         <v>8900</v>
       </c>
@@ -8297,14 +8788,14 @@
       <c r="F80" s="6">
         <v>1419</v>
       </c>
-      <c r="G80" s="34">
+      <c r="G80" s="38">
         <v>476</v>
       </c>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="34"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="38"/>
       <c r="M80" s="4">
         <v>9762</v>
       </c>
@@ -8332,14 +8823,14 @@
       <c r="F81" s="6">
         <v>1686</v>
       </c>
-      <c r="G81" s="34">
+      <c r="G81" s="38">
         <v>543</v>
       </c>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="34"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="38"/>
       <c r="M81" s="4">
         <v>10301</v>
       </c>
@@ -8370,13 +8861,13 @@
       <c r="G82" s="6">
         <v>274</v>
       </c>
-      <c r="H82" s="37">
+      <c r="H82" s="40">
         <v>589</v>
       </c>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="37"/>
-      <c r="L82" s="37"/>
+      <c r="I82" s="40"/>
+      <c r="J82" s="40"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="40"/>
       <c r="M82" s="4">
         <v>10755</v>
       </c>
@@ -8407,13 +8898,13 @@
       <c r="G83" s="6">
         <v>633</v>
       </c>
-      <c r="H83" s="34">
+      <c r="H83" s="38">
         <v>473</v>
       </c>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="34"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="38"/>
       <c r="M83" s="4">
         <v>11008</v>
       </c>
@@ -8442,13 +8933,13 @@
       <c r="G84" s="6">
         <v>909</v>
       </c>
-      <c r="H84" s="34">
+      <c r="H84" s="38">
         <v>586</v>
       </c>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="34"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
       <c r="M84" s="4">
         <v>11457</v>
       </c>
@@ -8477,13 +8968,13 @@
       <c r="G85" s="6">
         <v>1089</v>
       </c>
-      <c r="H85" s="34">
+      <c r="H85" s="38">
         <v>618</v>
       </c>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="38"/>
       <c r="M85" s="4">
         <v>12030</v>
       </c>
@@ -8512,13 +9003,13 @@
       <c r="G86" s="6">
         <v>1233</v>
       </c>
-      <c r="H86" s="34">
+      <c r="H86" s="38">
         <v>941</v>
       </c>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="38"/>
       <c r="M86" s="4">
         <v>12310</v>
       </c>
@@ -8547,13 +9038,13 @@
       <c r="G87" s="6">
         <v>1475</v>
       </c>
-      <c r="H87" s="34">
+      <c r="H87" s="38">
         <v>984</v>
       </c>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
+      <c r="L87" s="38"/>
       <c r="M87" s="4">
         <v>12846</v>
       </c>
@@ -8582,13 +9073,13 @@
       <c r="G88" s="6">
         <v>1755</v>
       </c>
-      <c r="H88" s="34">
+      <c r="H88" s="38">
         <v>800</v>
       </c>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
+      <c r="L88" s="38"/>
       <c r="M88" s="4">
         <v>13301</v>
       </c>
@@ -8617,13 +9108,13 @@
       <c r="G89" s="6">
         <v>2054</v>
       </c>
-      <c r="H89" s="34">
+      <c r="H89" s="38">
         <v>850</v>
       </c>
-      <c r="I89" s="34"/>
-      <c r="J89" s="34"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="34"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
+      <c r="L89" s="38"/>
       <c r="M89" s="4">
         <v>14112</v>
       </c>
@@ -8652,13 +9143,13 @@
       <c r="G90" s="6">
         <v>2292</v>
       </c>
-      <c r="H90" s="34">
+      <c r="H90" s="38">
         <v>882</v>
       </c>
-      <c r="I90" s="34"/>
-      <c r="J90" s="34"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="38"/>
       <c r="M90" s="4">
         <v>15021</v>
       </c>
@@ -8687,13 +9178,13 @@
       <c r="G91" s="6">
         <v>2375</v>
       </c>
-      <c r="H91" s="34">
+      <c r="H91" s="38">
         <v>909</v>
       </c>
-      <c r="I91" s="34"/>
-      <c r="J91" s="34"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
+      <c r="L91" s="38"/>
       <c r="M91" s="4">
         <v>15375</v>
       </c>
@@ -8722,13 +9213,13 @@
       <c r="G92" s="6">
         <v>2515</v>
       </c>
-      <c r="H92" s="34">
+      <c r="H92" s="38">
         <v>1350</v>
       </c>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="34"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
+      <c r="L92" s="38"/>
       <c r="M92" s="4">
         <v>16121</v>
       </c>
@@ -8757,13 +9248,13 @@
       <c r="G93" s="6">
         <v>2732</v>
       </c>
-      <c r="H93" s="34">
+      <c r="H93" s="38">
         <v>1563</v>
       </c>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
+      <c r="L93" s="38"/>
       <c r="M93" s="4">
         <v>16965.099999999999</v>
       </c>
@@ -8792,13 +9283,13 @@
       <c r="G94" s="6">
         <v>2883.9</v>
       </c>
-      <c r="H94" s="33">
+      <c r="H94" s="41">
         <v>1024.1000000000004</v>
       </c>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="33"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
       <c r="M94" s="4">
         <v>17163.5</v>
       </c>
@@ -8827,13 +9318,13 @@
       <c r="G95" s="6">
         <v>2852.3</v>
       </c>
-      <c r="H95" s="33">
+      <c r="H95" s="41">
         <v>1004.0999999999985</v>
       </c>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="33"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="41"/>
+      <c r="L95" s="41"/>
       <c r="M95" s="4">
         <v>18056.099999999999</v>
       </c>
@@ -8862,13 +9353,13 @@
       <c r="G96" s="6">
         <v>3082.2597000000001</v>
       </c>
-      <c r="H96" s="33">
+      <c r="H96" s="41">
         <v>1352.4359570000015</v>
       </c>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
-      <c r="K96" s="33"/>
-      <c r="L96" s="33"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
       <c r="M96" s="4">
         <v>19648</v>
       </c>
@@ -8897,13 +9388,13 @@
       <c r="G97" s="6">
         <v>3273.38915</v>
       </c>
-      <c r="H97" s="33">
+      <c r="H97" s="41">
         <v>2160.8464270000004</v>
       </c>
-      <c r="I97" s="33"/>
-      <c r="J97" s="33"/>
-      <c r="K97" s="33"/>
-      <c r="L97" s="33"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
       <c r="M97" s="4">
         <v>22010.799999999999</v>
       </c>
@@ -8932,13 +9423,13 @@
       <c r="G98" s="6">
         <v>3635.8831</v>
       </c>
-      <c r="H98" s="33">
+      <c r="H98" s="41">
         <v>2241.9223869999987</v>
       </c>
-      <c r="I98" s="33"/>
-      <c r="J98" s="33"/>
-      <c r="K98" s="33"/>
-      <c r="L98" s="33"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
       <c r="M98" s="4">
         <v>23548</v>
       </c>
@@ -8967,13 +9458,13 @@
       <c r="G99" s="6">
         <v>3961.8825499999998</v>
       </c>
-      <c r="H99" s="33">
+      <c r="H99" s="41">
         <v>2338.7968450000008</v>
       </c>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
-      <c r="K99" s="33"/>
-      <c r="L99" s="33"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
       <c r="M99" s="4">
         <v>24792</v>
       </c>
@@ -9002,13 +9493,13 @@
       <c r="G100" s="6">
         <v>4195.2577499999998</v>
       </c>
-      <c r="H100" s="33">
+      <c r="H100" s="41">
         <v>1014.2700199999999</v>
       </c>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
       <c r="M100" s="4">
         <v>25135</v>
       </c>
@@ -9037,13 +9528,13 @@
       <c r="G101" s="6">
         <v>4656.8182500000003</v>
       </c>
-      <c r="H101" s="33">
+      <c r="H101" s="41">
         <v>1008.6903200000015</v>
       </c>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
-      <c r="K101" s="33"/>
-      <c r="L101" s="33"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
       <c r="M101" s="4">
         <v>27195</v>
       </c>
@@ -9072,13 +9563,13 @@
       <c r="G102" s="6">
         <v>5213.8604500000001</v>
       </c>
-      <c r="H102" s="33">
+      <c r="H102" s="41">
         <v>882.5050599999995</v>
       </c>
-      <c r="I102" s="33"/>
-      <c r="J102" s="33"/>
-      <c r="K102" s="33"/>
-      <c r="L102" s="33"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
       <c r="M102" s="4">
         <v>29384</v>
       </c>
@@ -9107,13 +9598,13 @@
       <c r="G103" s="6">
         <v>5446.5115999999998</v>
       </c>
-      <c r="H103" s="33">
+      <c r="H103" s="41">
         <v>3306.6738049999985</v>
       </c>
-      <c r="I103" s="33"/>
-      <c r="J103" s="33"/>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
       <c r="M103" s="4">
         <v>33866</v>
       </c>
@@ -9142,13 +9633,13 @@
       <c r="G104" s="6">
         <v>5741.3209999999999</v>
       </c>
-      <c r="H104" s="33">
+      <c r="H104" s="41">
         <v>3512.7470950000024</v>
       </c>
-      <c r="I104" s="33"/>
-      <c r="J104" s="33"/>
-      <c r="K104" s="33"/>
-      <c r="L104" s="33"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="41"/>
       <c r="M104" s="4">
         <v>36015</v>
       </c>
@@ -9177,13 +9668,13 @@
       <c r="G105" s="6">
         <v>6121.8842999999997</v>
       </c>
-      <c r="H105" s="33">
+      <c r="H105" s="41">
         <v>1237.3341549999968</v>
       </c>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
-      <c r="K105" s="33"/>
-      <c r="L105" s="33"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
+      <c r="K105" s="41"/>
+      <c r="L105" s="41"/>
       <c r="M105" s="4">
         <v>35416</v>
       </c>
@@ -9212,13 +9703,13 @@
       <c r="G106" s="6">
         <v>6516.0963000000002</v>
       </c>
-      <c r="H106" s="33">
+      <c r="H106" s="41">
         <v>1072.5231300000014</v>
       </c>
-      <c r="I106" s="33"/>
-      <c r="J106" s="33"/>
-      <c r="K106" s="33"/>
-      <c r="L106" s="33"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="41"/>
       <c r="M106" s="4">
         <v>36914</v>
       </c>
@@ -9247,13 +9738,13 @@
       <c r="G107" s="6">
         <v>6704.6973500000004</v>
       </c>
-      <c r="H107" s="33">
+      <c r="H107" s="41">
         <v>1018.4935799999948</v>
       </c>
-      <c r="I107" s="33"/>
-      <c r="J107" s="33"/>
-      <c r="K107" s="33"/>
-      <c r="L107" s="33"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="41"/>
       <c r="M107" s="4">
         <v>38449</v>
       </c>
@@ -9282,13 +9773,13 @@
       <c r="G108" s="4">
         <v>7526.2340999999997</v>
       </c>
-      <c r="H108" s="33">
+      <c r="H108" s="41">
         <v>4446.7160549999971</v>
       </c>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33"/>
-      <c r="K108" s="33"/>
-      <c r="L108" s="33"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="41"/>
       <c r="M108" s="4">
         <v>44978</v>
       </c>
@@ -9317,13 +9808,13 @@
       <c r="G109" s="4">
         <v>8690.8922000000002</v>
       </c>
-      <c r="H109" s="33">
+      <c r="H109" s="41">
         <v>4221.9979149999999</v>
       </c>
-      <c r="I109" s="33"/>
-      <c r="J109" s="33"/>
-      <c r="K109" s="33"/>
-      <c r="L109" s="33"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
+      <c r="K109" s="41"/>
+      <c r="L109" s="41"/>
       <c r="M109" s="4">
         <v>48608</v>
       </c>
@@ -9352,13 +9843,13 @@
       <c r="G110" s="4">
         <v>9247.6473499999993</v>
       </c>
-      <c r="H110" s="33">
+      <c r="H110" s="41">
         <v>3280.5756949999995</v>
       </c>
-      <c r="I110" s="33"/>
-      <c r="J110" s="33"/>
-      <c r="K110" s="33"/>
-      <c r="L110" s="33"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
+      <c r="K110" s="41"/>
+      <c r="L110" s="41"/>
       <c r="M110" s="4">
         <v>50220</v>
       </c>
@@ -9387,13 +9878,13 @@
       <c r="G111" s="4">
         <v>9939.8822</v>
       </c>
-      <c r="H111" s="33">
+      <c r="H111" s="41">
         <v>3433.0337750000035</v>
       </c>
-      <c r="I111" s="33"/>
-      <c r="J111" s="33"/>
-      <c r="K111" s="33"/>
-      <c r="L111" s="33"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
+      <c r="K111" s="41"/>
+      <c r="L111" s="41"/>
       <c r="M111" s="4">
         <v>52194</v>
       </c>
@@ -9422,13 +9913,13 @@
       <c r="G112" s="4">
         <v>9899.1536500000002</v>
       </c>
-      <c r="H112" s="33">
+      <c r="H112" s="41">
         <v>3575</v>
       </c>
-      <c r="I112" s="33"/>
-      <c r="J112" s="33"/>
-      <c r="K112" s="33"/>
-      <c r="L112" s="33"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
+      <c r="K112" s="41"/>
+      <c r="L112" s="41"/>
       <c r="M112" s="4">
         <v>54921</v>
       </c>
@@ -9457,13 +9948,13 @@
       <c r="G113" s="4">
         <v>10322.695900000001</v>
       </c>
-      <c r="H113" s="33">
+      <c r="H113" s="41">
         <v>3776</v>
       </c>
-      <c r="I113" s="33"/>
-      <c r="J113" s="33"/>
-      <c r="K113" s="33"/>
-      <c r="L113" s="33"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
+      <c r="K113" s="41"/>
+      <c r="L113" s="41"/>
       <c r="M113" s="4">
         <v>58022</v>
       </c>
@@ -9492,13 +9983,13 @@
       <c r="G114" s="4">
         <v>11025.237999999999</v>
       </c>
-      <c r="H114" s="33">
+      <c r="H114" s="41">
         <v>3967</v>
       </c>
-      <c r="I114" s="33"/>
-      <c r="J114" s="33"/>
-      <c r="K114" s="33"/>
-      <c r="L114" s="33"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
+      <c r="L114" s="41"/>
       <c r="M114" s="4">
         <v>60198</v>
       </c>
@@ -9527,13 +10018,13 @@
       <c r="G115" s="4">
         <v>11787.5671</v>
       </c>
-      <c r="H115" s="33">
+      <c r="H115" s="41">
         <v>4118</v>
       </c>
-      <c r="I115" s="33"/>
-      <c r="J115" s="33"/>
-      <c r="K115" s="33"/>
-      <c r="L115" s="33"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
+      <c r="K115" s="41"/>
+      <c r="L115" s="41"/>
       <c r="M115" s="4">
         <v>63789</v>
       </c>
@@ -9562,13 +10053,13 @@
       <c r="G116" s="4">
         <v>13156.85915</v>
       </c>
-      <c r="H116" s="33">
+      <c r="H116" s="41">
         <v>4212</v>
       </c>
-      <c r="I116" s="33"/>
-      <c r="J116" s="33"/>
-      <c r="K116" s="33"/>
-      <c r="L116" s="33"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
+      <c r="K116" s="41"/>
+      <c r="L116" s="41"/>
       <c r="M116" s="4">
         <v>67818</v>
       </c>
@@ -9597,13 +10088,13 @@
       <c r="G117" s="4">
         <v>15600.934649999999</v>
       </c>
-      <c r="H117" s="33">
+      <c r="H117" s="41">
         <v>4322</v>
       </c>
-      <c r="I117" s="33"/>
-      <c r="J117" s="33"/>
-      <c r="K117" s="33"/>
-      <c r="L117" s="33"/>
+      <c r="I117" s="41"/>
+      <c r="J117" s="41"/>
+      <c r="K117" s="41"/>
+      <c r="L117" s="41"/>
       <c r="M117" s="4">
         <v>73198</v>
       </c>
@@ -9632,13 +10123,13 @@
       <c r="G118" s="4">
         <v>16507.853500000001</v>
       </c>
-      <c r="H118" s="33">
+      <c r="H118" s="41">
         <v>4351</v>
       </c>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="33"/>
-      <c r="L118" s="33"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
+      <c r="K118" s="41"/>
+      <c r="L118" s="41"/>
       <c r="M118" s="4">
         <v>73250</v>
       </c>
@@ -9666,13 +10157,13 @@
       <c r="G119" s="2">
         <v>17210</v>
       </c>
-      <c r="H119" s="33">
+      <c r="H119" s="41">
         <v>4330</v>
       </c>
-      <c r="I119" s="33"/>
-      <c r="J119" s="33"/>
-      <c r="K119" s="33"/>
-      <c r="L119" s="33"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
+      <c r="K119" s="41"/>
+      <c r="L119" s="41"/>
       <c r="M119" s="2">
         <v>74171</v>
       </c>
@@ -9683,35 +10174,38 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="G69:K69"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="G70:K70"/>
-    <mergeCell ref="G71:K71"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="H109:L109"/>
+    <mergeCell ref="H110:L110"/>
+    <mergeCell ref="H111:L111"/>
+    <mergeCell ref="H112:L112"/>
+    <mergeCell ref="H113:L113"/>
+    <mergeCell ref="H119:L119"/>
+    <mergeCell ref="H115:L115"/>
+    <mergeCell ref="H116:L116"/>
+    <mergeCell ref="H117:L117"/>
+    <mergeCell ref="H118:L118"/>
+    <mergeCell ref="H114:L114"/>
+    <mergeCell ref="H94:L94"/>
+    <mergeCell ref="H95:L95"/>
+    <mergeCell ref="H96:L96"/>
+    <mergeCell ref="H108:L108"/>
+    <mergeCell ref="H97:L97"/>
+    <mergeCell ref="H98:L98"/>
+    <mergeCell ref="H99:L99"/>
+    <mergeCell ref="H100:L100"/>
+    <mergeCell ref="H101:L101"/>
+    <mergeCell ref="H102:L102"/>
+    <mergeCell ref="H103:L103"/>
+    <mergeCell ref="H104:L104"/>
+    <mergeCell ref="H105:L105"/>
+    <mergeCell ref="H106:L106"/>
+    <mergeCell ref="H107:L107"/>
+    <mergeCell ref="H91:L91"/>
+    <mergeCell ref="H84:L84"/>
+    <mergeCell ref="H85:L85"/>
+    <mergeCell ref="H86:L86"/>
+    <mergeCell ref="H87:L87"/>
+    <mergeCell ref="H88:L88"/>
     <mergeCell ref="H92:L92"/>
     <mergeCell ref="H93:L93"/>
     <mergeCell ref="G72:K72"/>
@@ -9728,38 +10222,35 @@
     <mergeCell ref="H90:L90"/>
     <mergeCell ref="G77:L77"/>
     <mergeCell ref="G78:L78"/>
-    <mergeCell ref="H91:L91"/>
-    <mergeCell ref="H84:L84"/>
-    <mergeCell ref="H85:L85"/>
-    <mergeCell ref="H86:L86"/>
-    <mergeCell ref="H87:L87"/>
-    <mergeCell ref="H88:L88"/>
-    <mergeCell ref="H114:L114"/>
-    <mergeCell ref="H94:L94"/>
-    <mergeCell ref="H95:L95"/>
-    <mergeCell ref="H96:L96"/>
-    <mergeCell ref="H108:L108"/>
-    <mergeCell ref="H97:L97"/>
-    <mergeCell ref="H98:L98"/>
-    <mergeCell ref="H99:L99"/>
-    <mergeCell ref="H100:L100"/>
-    <mergeCell ref="H101:L101"/>
-    <mergeCell ref="H102:L102"/>
-    <mergeCell ref="H103:L103"/>
-    <mergeCell ref="H104:L104"/>
-    <mergeCell ref="H105:L105"/>
-    <mergeCell ref="H106:L106"/>
-    <mergeCell ref="H107:L107"/>
-    <mergeCell ref="H119:L119"/>
-    <mergeCell ref="H115:L115"/>
-    <mergeCell ref="H116:L116"/>
-    <mergeCell ref="H117:L117"/>
-    <mergeCell ref="H118:L118"/>
-    <mergeCell ref="H109:L109"/>
-    <mergeCell ref="H110:L110"/>
-    <mergeCell ref="H111:L111"/>
-    <mergeCell ref="H112:L112"/>
-    <mergeCell ref="H113:L113"/>
+    <mergeCell ref="G70:K70"/>
+    <mergeCell ref="G71:K71"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="G69:K69"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Front Page'!D40" display="Back to front page" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -9777,7 +10268,7 @@
     <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="B152" sqref="B152:B228"/>
     </sheetView>
-    <sheetView workbookViewId="1">
+    <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
     <sheetView workbookViewId="2"/>
@@ -11633,18 +12124,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03F5545-827B-4AFC-9B98-49A8F05D5B56}">
-  <dimension ref="A1:V51"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q78" sqref="Q78"/>
     </sheetView>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="1">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="1">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
     <sheetView topLeftCell="F19" workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19.453125" customWidth="1"/>
@@ -13750,6 +14242,882 @@
       <c r="J51">
         <f>(I51/I50-1)*100</f>
         <v>1.3646513935985372</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="5">
+        <v>1993</v>
+      </c>
+      <c r="B52" s="23">
+        <v>1.6</v>
+      </c>
+      <c r="C52" s="31">
+        <v>5.2360275417157709</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6">
+        <v>58.2</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1162.5</v>
+      </c>
+      <c r="G52" s="6">
+        <v>5347.6</v>
+      </c>
+      <c r="H52" s="6">
+        <v>6101.6</v>
+      </c>
+      <c r="I52" s="30">
+        <f t="shared" ref="I52:I78" si="6">SUM(E52:H52)</f>
+        <v>12669.900000000001</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:J78" si="7">(I52/I51-1)*100</f>
+        <v>3.3771214099216795</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>1994</v>
+      </c>
+      <c r="B53" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="C53" s="31">
+        <v>1.1694596554102432</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6">
+        <v>57.3</v>
+      </c>
+      <c r="F53" s="6">
+        <v>1135.0999999999999</v>
+      </c>
+      <c r="G53" s="6">
+        <v>5245.3</v>
+      </c>
+      <c r="H53" s="6">
+        <v>6817.8</v>
+      </c>
+      <c r="I53" s="30">
+        <f t="shared" si="6"/>
+        <v>13255.5</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="7"/>
+        <v>4.6219780740179406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="5">
+        <v>1995</v>
+      </c>
+      <c r="B54" s="23">
+        <v>3.5</v>
+      </c>
+      <c r="C54" s="31">
+        <v>5.2005709791126398</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6">
+        <v>56.6</v>
+      </c>
+      <c r="F54" s="6">
+        <v>1072.0999999999999</v>
+      </c>
+      <c r="G54" s="6">
+        <v>5347.6</v>
+      </c>
+      <c r="H54" s="6">
+        <v>7723.4</v>
+      </c>
+      <c r="I54" s="30">
+        <f t="shared" si="6"/>
+        <v>14199.7</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="7"/>
+        <v>7.1230809852514065</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>1996</v>
+      </c>
+      <c r="B55" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="C55" s="31">
+        <v>8.8164110743737645</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6">
+        <v>56.071967999999998</v>
+      </c>
+      <c r="F55" s="6">
+        <v>1058.660695</v>
+      </c>
+      <c r="G55" s="6">
+        <v>5592.8426399999998</v>
+      </c>
+      <c r="H55" s="6">
+        <v>8505.7290400000002</v>
+      </c>
+      <c r="I55" s="30">
+        <f t="shared" si="6"/>
+        <v>15213.304343</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="7"/>
+        <v>7.1382095607653628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="5">
+        <v>1997</v>
+      </c>
+      <c r="B56" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="C56" s="31">
+        <v>12.025651465798038</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6">
+        <v>55.622278000000001</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1047.137285</v>
+      </c>
+      <c r="G56" s="6">
+        <v>5915.3105599999999</v>
+      </c>
+      <c r="H56" s="6">
+        <v>9558.4943000000003</v>
+      </c>
+      <c r="I56" s="30">
+        <f t="shared" si="6"/>
+        <v>16576.564423</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="7"/>
+        <v>8.9609729041361561</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>1998</v>
+      </c>
+      <c r="B57" s="23">
+        <v>3.4</v>
+      </c>
+      <c r="C57" s="31">
+        <v>6.9838442946190016</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6">
+        <v>55.250503000000002</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1034.55663</v>
+      </c>
+      <c r="G57" s="6">
+        <v>5959.8221400000002</v>
+      </c>
+      <c r="H57" s="6">
+        <v>10620.56524</v>
+      </c>
+      <c r="I57" s="30">
+        <f t="shared" si="6"/>
+        <v>17670.194513000002</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="7"/>
+        <v>6.5974472278621743</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="5">
+        <v>1999</v>
+      </c>
+      <c r="B58" s="23">
+        <v>1.5</v>
+      </c>
+      <c r="C58" s="31">
+        <v>5.2828265670120667</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6">
+        <v>0</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1110.9692749999999</v>
+      </c>
+      <c r="G58" s="6">
+        <v>5966.5362100000002</v>
+      </c>
+      <c r="H58" s="6">
+        <v>11413.815119999999</v>
+      </c>
+      <c r="I58" s="30">
+        <f t="shared" si="6"/>
+        <v>18491.320605000001</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="7"/>
+        <v>4.6469555917785454</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B59" s="23">
+        <v>3</v>
+      </c>
+      <c r="C59" s="31">
+        <v>1.3835108099386817</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6">
+        <v>0</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1045.14544</v>
+      </c>
+      <c r="G59" s="6">
+        <v>5683.7956700000004</v>
+      </c>
+      <c r="H59" s="6">
+        <v>13196.53112</v>
+      </c>
+      <c r="I59" s="30">
+        <f t="shared" si="6"/>
+        <v>19925.472229999999</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="7"/>
+        <v>7.7558096343438354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A60" s="5">
+        <v>2001</v>
+      </c>
+      <c r="B60" s="23">
+        <v>1.8</v>
+      </c>
+      <c r="C60" s="31">
+        <v>8.1957429878655184</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6">
+        <v>0</v>
+      </c>
+      <c r="F60" s="6">
+        <v>1040.59422</v>
+      </c>
+      <c r="G60" s="6">
+        <v>6107.4510499999997</v>
+      </c>
+      <c r="H60" s="6">
+        <v>14381.44616</v>
+      </c>
+      <c r="I60" s="30">
+        <f t="shared" si="6"/>
+        <v>21529.491429999998</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="7"/>
+        <v>8.0500937768740677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A61" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B61" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="C61" s="31">
+        <v>8.0492737635594835</v>
+      </c>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6">
+        <v>0</v>
+      </c>
+      <c r="F61" s="6">
+        <v>1043.6088199999999</v>
+      </c>
+      <c r="G61" s="6">
+        <v>5922.6394700000001</v>
+      </c>
+      <c r="H61" s="6">
+        <v>16321.386200000001</v>
+      </c>
+      <c r="I61" s="30">
+        <f t="shared" si="6"/>
+        <v>23287.63449</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="7"/>
+        <v>8.1662080394065306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A62" s="5">
+        <v>2003</v>
+      </c>
+      <c r="B62" s="23">
+        <v>2.9</v>
+      </c>
+      <c r="C62" s="31">
+        <v>15.253199019874764</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6">
+        <v>0</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1051.228265</v>
+      </c>
+      <c r="G62" s="6">
+        <v>5931.3857699999999</v>
+      </c>
+      <c r="H62" s="6">
+        <v>18130.200560000001</v>
+      </c>
+      <c r="I62" s="30">
+        <f t="shared" si="6"/>
+        <v>25112.814595</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="7"/>
+        <v>7.8375504638899862</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A63" s="5">
+        <v>2004</v>
+      </c>
+      <c r="B63" s="23">
+        <v>3</v>
+      </c>
+      <c r="C63" s="31">
+        <v>6.3455973542786204</v>
+      </c>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6">
+        <v>0</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1027.2606949999999</v>
+      </c>
+      <c r="G63" s="6">
+        <v>5699.1714499999998</v>
+      </c>
+      <c r="H63" s="6">
+        <v>20034.499759999999</v>
+      </c>
+      <c r="I63" s="30">
+        <f t="shared" si="6"/>
+        <v>26760.931904999998</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="7"/>
+        <v>6.5628538122052715</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A64" s="5">
+        <v>2005</v>
+      </c>
+      <c r="B64" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C64" s="31">
+        <v>-1.6631958906011435</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6">
+        <v>0</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1040.374225</v>
+      </c>
+      <c r="G64" s="6">
+        <v>5668.3963000000003</v>
+      </c>
+      <c r="H64" s="6">
+        <v>21348.011020000002</v>
+      </c>
+      <c r="I64" s="30">
+        <f t="shared" si="6"/>
+        <v>28056.781545000002</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="7"/>
+        <v>4.8423188123650096</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="5">
+        <v>2006</v>
+      </c>
+      <c r="B65" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="C65" s="31">
+        <v>4.2297266772080455</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6">
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1051.70463</v>
+      </c>
+      <c r="G65" s="6">
+        <v>5589.9272799999999</v>
+      </c>
+      <c r="H65" s="6">
+        <v>22683.748660000001</v>
+      </c>
+      <c r="I65" s="30">
+        <f t="shared" si="6"/>
+        <v>29325.380570000001</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="7"/>
+        <v>4.5215415138236903</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="5">
+        <v>2007</v>
+      </c>
+      <c r="B66" s="23">
+        <v>4.3</v>
+      </c>
+      <c r="C66" s="31">
+        <v>4.1583139188383855</v>
+      </c>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>1100.05528</v>
+      </c>
+      <c r="G66" s="6">
+        <v>5885.6452300000001</v>
+      </c>
+      <c r="H66" s="6">
+        <v>23740.108560000001</v>
+      </c>
+      <c r="I66" s="30">
+        <f t="shared" si="6"/>
+        <v>30725.809070000003</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="7"/>
+        <v>4.7754827824217472</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="5">
+        <v>2008</v>
+      </c>
+      <c r="B67" s="23">
+        <v>4</v>
+      </c>
+      <c r="C67" s="31">
+        <v>16.980935785065942</v>
+      </c>
+      <c r="D67" s="5"/>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>1241.8425549999999</v>
+      </c>
+      <c r="G67" s="4">
+        <v>6114.69715</v>
+      </c>
+      <c r="H67" s="4">
+        <v>25648.510139999999</v>
+      </c>
+      <c r="I67" s="30">
+        <f t="shared" si="6"/>
+        <v>33005.049845000001</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="7"/>
+        <v>7.4180008402948694</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="5">
+        <v>2009</v>
+      </c>
+      <c r="B68" s="23">
+        <v>-0.5</v>
+      </c>
+      <c r="C68" s="31">
+        <v>8.070612299346358</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>1301.741665</v>
+      </c>
+      <c r="G68" s="4">
+        <v>6304.3233799999998</v>
+      </c>
+      <c r="H68" s="4">
+        <v>28089.044839999999</v>
+      </c>
+      <c r="I68" s="30">
+        <f t="shared" si="6"/>
+        <v>35695.109884999998</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="7"/>
+        <v>8.1504498633790732</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="5">
+        <v>2010</v>
+      </c>
+      <c r="B69" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C69" s="31">
+        <v>3.3163265306122458</v>
+      </c>
+      <c r="D69" s="5"/>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1245.189185</v>
+      </c>
+      <c r="G69" s="4">
+        <v>6399.0234700000001</v>
+      </c>
+      <c r="H69" s="4">
+        <v>30047.564299999998</v>
+      </c>
+      <c r="I69" s="30">
+        <f t="shared" si="6"/>
+        <v>37691.776955000001</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="7"/>
+        <v>5.5936711679351214</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="5">
+        <v>2011</v>
+      </c>
+      <c r="B70" s="23">
+        <v>5.2</v>
+      </c>
+      <c r="C70" s="31">
+        <v>3.930704898446824</v>
+      </c>
+      <c r="D70" s="5"/>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1354.8544549999999</v>
+      </c>
+      <c r="G70" s="4">
+        <v>6492.8773099999999</v>
+      </c>
+      <c r="H70" s="4">
+        <v>30973.35226</v>
+      </c>
+      <c r="I70" s="30">
+        <f t="shared" si="6"/>
+        <v>38821.084024999996</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="7"/>
+        <v>2.9961629862881534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="5">
+        <v>2012</v>
+      </c>
+      <c r="B71" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="C71" s="31">
+        <v>5.224738475686852</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1477.0013550000001</v>
+      </c>
+      <c r="G71" s="4">
+        <v>6841.1008000000002</v>
+      </c>
+      <c r="H71" s="4">
+        <v>33129.424720000003</v>
+      </c>
+      <c r="I71" s="30">
+        <f t="shared" si="6"/>
+        <v>41447.526875000003</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="7"/>
+        <v>6.7655062087102813</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72" s="5">
+        <v>2013</v>
+      </c>
+      <c r="B72" s="23">
+        <v>3</v>
+      </c>
+      <c r="C72" s="31">
+        <v>5.6462919466142347</v>
+      </c>
+      <c r="D72" s="5"/>
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1526.0100749999999</v>
+      </c>
+      <c r="G72" s="4">
+        <v>7233.5426900000002</v>
+      </c>
+      <c r="H72" s="4">
+        <v>35162.863060000003</v>
+      </c>
+      <c r="I72" s="30">
+        <f t="shared" si="6"/>
+        <v>43922.415825000004</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="7"/>
+        <v>5.9711378135151927</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73" s="5">
+        <v>2014</v>
+      </c>
+      <c r="B73" s="23">
+        <v>2.4</v>
+      </c>
+      <c r="C73" s="31">
+        <v>3.7503016097342412</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>1540.10709</v>
+      </c>
+      <c r="G73" s="4">
+        <v>7181.9532600000002</v>
+      </c>
+      <c r="H73" s="4">
+        <v>36483.199820000002</v>
+      </c>
+      <c r="I73" s="30">
+        <f t="shared" si="6"/>
+        <v>45205.260170000001</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="7"/>
+        <v>2.9207053412344974</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="5">
+        <v>2015</v>
+      </c>
+      <c r="B74" s="23">
+        <v>1</v>
+      </c>
+      <c r="C74" s="31">
+        <v>5.9653144622744847</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>1601.07214</v>
+      </c>
+      <c r="G74" s="4">
+        <v>7371.18181</v>
+      </c>
+      <c r="H74" s="4">
+        <v>38911.652540000003</v>
+      </c>
+      <c r="I74" s="30">
+        <f t="shared" si="6"/>
+        <v>47883.906490000001</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="7"/>
+        <v>5.9255190876606356</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="5">
+        <v>2016</v>
+      </c>
+      <c r="B75" s="23">
+        <v>1.7</v>
+      </c>
+      <c r="C75" s="31">
+        <v>6.3161360109109665</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <v>1645.3763349999999</v>
+      </c>
+      <c r="G75" s="4">
+        <v>7766.8913400000001</v>
+      </c>
+      <c r="H75" s="4">
+        <v>41037.131759999997</v>
+      </c>
+      <c r="I75" s="30">
+        <f t="shared" si="6"/>
+        <v>50449.399434999999</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="7"/>
+        <v>5.3577352665154176</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="5">
+        <v>2017</v>
+      </c>
+      <c r="B76" s="23">
+        <v>3.6</v>
+      </c>
+      <c r="C76" s="31">
+        <v>7.93299713940252</v>
+      </c>
+      <c r="D76" s="5"/>
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <v>1912.1261999999999</v>
+      </c>
+      <c r="G76" s="4">
+        <v>8006.10743</v>
+      </c>
+      <c r="H76" s="4">
+        <v>43357.23012</v>
+      </c>
+      <c r="I76" s="30">
+        <f t="shared" si="6"/>
+        <v>53275.463750000003</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="7"/>
+        <v>5.601779895598491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77" s="5">
+        <v>2018</v>
+      </c>
+      <c r="B77" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="C77" s="31">
+        <v>7.1040192354976384E-2</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <v>1910.1308650000001</v>
+      </c>
+      <c r="G77" s="4">
+        <v>7788.9525100000001</v>
+      </c>
+      <c r="H77" s="4">
+        <v>42692.430959999998</v>
+      </c>
+      <c r="I77" s="30">
+        <f t="shared" si="6"/>
+        <v>52391.514335</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="7"/>
+        <v>-1.6592054818105662</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78" s="5">
+        <v>2019</v>
+      </c>
+      <c r="B78" s="42">
+        <v>2.6</v>
+      </c>
+      <c r="C78" s="31">
+        <v>1.2573378839590532</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1979</v>
+      </c>
+      <c r="G78" s="4">
+        <v>10524</v>
+      </c>
+      <c r="H78" s="4">
+        <v>40128</v>
+      </c>
+      <c r="I78" s="30">
+        <f t="shared" si="6"/>
+        <v>52631</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="7"/>
+        <v>0.45710773593732323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B79" s="43">
+        <f>_xlfn.STDEV.S(B2:B51)</f>
+        <v>4.8564793664479513</v>
+      </c>
+      <c r="C79" s="43">
+        <f>_xlfn.STDEV.S(C2:C51)</f>
+        <v>4.9548194896380737</v>
       </c>
     </row>
   </sheetData>
@@ -13762,7 +15130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6464F2BD-4D15-4131-AE79-82BFE2E89945}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
     <sheetView workbookViewId="1">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,11 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://computingservices-my.sharepoint.com/personal/ch704_bath_ac_uk/Documents/CV/BoE/Senior Analyst, Future of Cash - Notes Directorate/interview/files sent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{223A8F33-72C4-46BD-9E66-72CDABABF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFE74A02-78A9-45B8-9034-3B9DF30E2334}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{223A8F33-72C4-46BD-9E66-72CDABABF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7AEA13A-AAB9-47B1-A9E9-B34C544B60BB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{788B732F-1436-4867-B2C1-3A732B776CA7}"/>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{40E723D5-1947-4C89-8A39-F2C304A3A6E1}"/>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{C2667252-711C-4967-9AF0-23DAC059CE38}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{40E723D5-1947-4C89-8A39-F2C304A3A6E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="4" xr2:uid="{C2667252-711C-4967-9AF0-23DAC059CE38}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Sources" sheetId="3" r:id="rId1"/>
@@ -1143,6 +1142,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1170,8 +1171,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 12" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1193,1301 +1192,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Inflation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1943</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1944</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1945</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1946</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1947</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1948</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1949</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1952</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1953</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1954</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1955</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1956</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1957</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1958</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1959</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1961</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1962</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1963</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1965</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1966</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1967</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1968</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1969</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1971</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1972</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1974</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1975</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1977</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1978</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1979</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1981</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$B$3:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.4</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4.5999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.9000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.8</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.9</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F5FC-4068-91E0-4AC40399776D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Growth rate of smaller value notes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1943</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1944</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1945</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1946</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1947</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1948</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1949</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1952</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1953</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1954</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1955</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1956</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1957</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1958</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1959</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1961</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1962</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1963</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1965</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1966</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1967</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1968</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1969</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1971</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1972</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1974</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1975</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1977</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1978</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1979</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1981</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$J$3:$J$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
-                <c:pt idx="0">
-                  <c:v>23.195017771445812</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.954091130237689</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.282758015846172</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8947168343827174</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-10.327458437647085</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13350750317744353</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8786747957144856</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.4027334432879641</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.4324920379921435</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.3984670968681776</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.762768804258811</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0690823839338233</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.881729563564277</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.772242135204996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.9790477053867521</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.4808709267629681</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.6797953226910725</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.0562145511544143</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3863315312238305</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.82200587803087366</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.328702649358541</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.7529108213002518</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.4130912258904891</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.3566134189033425</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.1481333789713535</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.3055451602725947</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.0845164863197345</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>13.951978619409822</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.6722810774049135</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.375601650951641</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.1440496370372326</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>16.434940568745169</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12.522992935458511</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.784832144720815</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14.882788402220859</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14.767082829910061</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.4688267633641345</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.0900463711851529</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.4366341713699438</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.11127971674254056</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.66693613581245703</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.6237703272435251</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-1.8114889082631036</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.4763220205209047</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.4562433811495152</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.2992741485203823</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.70128479657388</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.0595931459441275</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.3646513935985372</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F5FC-4068-91E0-4AC40399776D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>data!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Growth rate of note in circulation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>data!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1943</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1944</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1945</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1946</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1947</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1948</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1949</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1951</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1952</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1953</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1954</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1955</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1956</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1957</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1958</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1959</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1960</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1961</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1962</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1963</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1964</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1965</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1966</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1967</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1968</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1969</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1970</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1971</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1972</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1973</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1974</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1975</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1976</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1977</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1978</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1979</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1980</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1981</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1982</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1983</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1984</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1985</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1986</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1987</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1990</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1991</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>data!$C$1:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.000">
-                  <c:v>18.192619026895308</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="0.000">
-                  <c:v>12.041346476031256</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.000">
-                  <c:v>8.6209403840639567</c:v>
-                </c:pt>
-                <c:pt idx="5" formatCode="0.000">
-                  <c:v>4.156360858350916</c:v>
-                </c:pt>
-                <c:pt idx="6" formatCode="0.000">
-                  <c:v>-10.431075801368161</c:v>
-                </c:pt>
-                <c:pt idx="7" formatCode="0.000">
-                  <c:v>-0.12129251116037576</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="0.000">
-                  <c:v>1.4722953260285498</c:v>
-                </c:pt>
-                <c:pt idx="9" formatCode="0.000">
-                  <c:v>3.116582654879152</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="0.000">
-                  <c:v>6.1761965459537382</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="0.000">
-                  <c:v>7.4181402625035586</c:v>
-                </c:pt>
-                <c:pt idx="12" formatCode="0.000">
-                  <c:v>5.4381459953813049</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.000">
-                  <c:v>7.4471859835284038</c:v>
-                </c:pt>
-                <c:pt idx="14" formatCode="0.000">
-                  <c:v>7.3481925526178937</c:v>
-                </c:pt>
-                <c:pt idx="15" formatCode="0.000">
-                  <c:v>4.8207879490928196</c:v>
-                </c:pt>
-                <c:pt idx="16" formatCode="0.000">
-                  <c:v>4.8848710188295952</c:v>
-                </c:pt>
-                <c:pt idx="17" formatCode="0.000">
-                  <c:v>2.4527146169805114</c:v>
-                </c:pt>
-                <c:pt idx="18" formatCode="0.000">
-                  <c:v>5.0681562337219432</c:v>
-                </c:pt>
-                <c:pt idx="19" formatCode="0.000">
-                  <c:v>4.5658263437706958</c:v>
-                </c:pt>
-                <c:pt idx="20" formatCode="0.000">
-                  <c:v>4.0515235925317139</c:v>
-                </c:pt>
-                <c:pt idx="21" formatCode="0.000">
-                  <c:v>0.31192702792748328</c:v>
-                </c:pt>
-                <c:pt idx="22" formatCode="0.000">
-                  <c:v>5.2246070491685392</c:v>
-                </c:pt>
-                <c:pt idx="23" formatCode="0.000">
-                  <c:v>7.177193180999808</c:v>
-                </c:pt>
-                <c:pt idx="24" formatCode="0.000">
-                  <c:v>6.9088254820055095</c:v>
-                </c:pt>
-                <c:pt idx="25" formatCode="0.000">
-                  <c:v>3.063666379222707</c:v>
-                </c:pt>
-                <c:pt idx="26" formatCode="0.000">
-                  <c:v>5.1074482865808069</c:v>
-                </c:pt>
-                <c:pt idx="27" formatCode="0.000">
-                  <c:v>4.1169003012754057</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="0.000">
-                  <c:v>3.2905249414874271</c:v>
-                </c:pt>
-                <c:pt idx="29" formatCode="0.000">
-                  <c:v>12.901071744349935</c:v>
-                </c:pt>
-                <c:pt idx="30" formatCode="0.000">
-                  <c:v>0.99184796707074696</c:v>
-                </c:pt>
-                <c:pt idx="31" formatCode="0.000">
-                  <c:v>13.197567539287135</c:v>
-                </c:pt>
-                <c:pt idx="32" formatCode="0.000">
-                  <c:v>9.2404168933828181</c:v>
-                </c:pt>
-                <c:pt idx="33" formatCode="0.000">
-                  <c:v>17.096503204149862</c:v>
-                </c:pt>
-                <c:pt idx="34" formatCode="0.000">
-                  <c:v>12.821905151546776</c:v>
-                </c:pt>
-                <c:pt idx="35" formatCode="0.000">
-                  <c:v>11.850380668652761</c:v>
-                </c:pt>
-                <c:pt idx="36" formatCode="0.000">
-                  <c:v>15.063628292394204</c:v>
-                </c:pt>
-                <c:pt idx="37" formatCode="0.000">
-                  <c:v>14.454732510288061</c:v>
-                </c:pt>
-                <c:pt idx="38" formatCode="0.000">
-                  <c:v>9.6853932584269664</c:v>
-                </c:pt>
-                <c:pt idx="39" formatCode="0.000">
-                  <c:v>5.5214095472239322</c:v>
-                </c:pt>
-                <c:pt idx="40" formatCode="0.000">
-                  <c:v>4.4073390932919176</c:v>
-                </c:pt>
-                <c:pt idx="41" formatCode="0.000">
-                  <c:v>2.35239423523943</c:v>
-                </c:pt>
-                <c:pt idx="42" formatCode="0.000">
-                  <c:v>4.0788517441860517</c:v>
-                </c:pt>
-                <c:pt idx="43" formatCode="0.000">
-                  <c:v>5.0013092432573902</c:v>
-                </c:pt>
-                <c:pt idx="44" formatCode="0.000">
-                  <c:v>2.3275145469659142</c:v>
-                </c:pt>
-                <c:pt idx="45" formatCode="0.000">
-                  <c:v>4.3541835905767767</c:v>
-                </c:pt>
-                <c:pt idx="46" formatCode="0.000">
-                  <c:v>3.5419585863303737</c:v>
-                </c:pt>
-                <c:pt idx="47" formatCode="0.000">
-                  <c:v>6.0972859183520134</c:v>
-                </c:pt>
-                <c:pt idx="48" formatCode="0.000">
-                  <c:v>6.4413265306122458</c:v>
-                </c:pt>
-                <c:pt idx="49" formatCode="0.000">
-                  <c:v>2.3567006191332229</c:v>
-                </c:pt>
-                <c:pt idx="50" formatCode="0.000">
-                  <c:v>4.8520325203252002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F5FC-4068-91E0-4AC40399776D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1328360287"/>
-        <c:axId val="1328352383"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1328360287"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1328352383"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1328352383"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1328360287"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4394,46 +3098,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4989,562 +3653,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>373936</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>65706</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811922B1-2FD6-4B23-9AE6-FE3FF94AE8CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -5575,7 +3685,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5851,7 +3961,6 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5897,11 +4006,8 @@
   </sheetPr>
   <dimension ref="A1:N119"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="A8:F119"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
     <sheetView workbookViewId="1"/>
-    <sheetView workbookViewId="2"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6020,12 +4126,12 @@
       <c r="H8" s="17">
         <v>100</v>
       </c>
-      <c r="I8" s="33" t="s">
+      <c r="I8" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
     </row>
@@ -6107,12 +4213,12 @@
       <c r="H12" s="14">
         <v>14.6</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="36">
         <v>33.200000000000003</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
       <c r="M12" s="14">
         <v>434.5</v>
       </c>
@@ -6146,12 +4252,12 @@
       <c r="H13" s="14">
         <v>14.2</v>
       </c>
-      <c r="I13" s="35">
+      <c r="I13" s="37">
         <v>29.7</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
       <c r="M13" s="14">
         <v>398.8</v>
       </c>
@@ -6185,12 +4291,12 @@
       <c r="H14" s="14">
         <v>14.4</v>
       </c>
-      <c r="I14" s="35">
+      <c r="I14" s="37">
         <v>29</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
       <c r="M14" s="14">
         <v>386.2</v>
       </c>
@@ -6224,12 +4330,12 @@
       <c r="H15" s="14">
         <v>14.2</v>
       </c>
-      <c r="I15" s="35">
+      <c r="I15" s="37">
         <v>30.1</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
       <c r="M15" s="14">
         <v>389.4</v>
       </c>
@@ -6264,12 +4370,12 @@
       <c r="H16" s="14">
         <v>12.3</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="37">
         <v>27.9</v>
       </c>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
       <c r="M16" s="14">
         <v>382.5</v>
       </c>
@@ -6304,12 +4410,12 @@
       <c r="H17" s="14">
         <v>11.8</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="37">
         <v>23.7</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
       <c r="M17" s="14">
         <v>375</v>
       </c>
@@ -6344,12 +4450,12 @@
       <c r="H18" s="14">
         <v>11.5</v>
       </c>
-      <c r="I18" s="35">
+      <c r="I18" s="37">
         <v>24.4</v>
       </c>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
       <c r="M18" s="14">
         <v>373.3</v>
       </c>
@@ -6384,12 +4490,12 @@
       <c r="H19" s="14">
         <v>11.5</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="37">
         <v>30.7</v>
       </c>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
       <c r="M19" s="14">
         <v>371.9</v>
       </c>
@@ -6424,12 +4530,12 @@
       <c r="H20" s="14">
         <v>11.1</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="37">
         <v>28.6</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="14">
         <v>362.3</v>
       </c>
@@ -6464,12 +4570,12 @@
       <c r="H21" s="14">
         <v>10.9</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I21" s="37">
         <v>29</v>
       </c>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
       <c r="M21" s="14">
         <v>358.6</v>
       </c>
@@ -6504,12 +4610,12 @@
       <c r="H22" s="14">
         <v>11.3</v>
       </c>
-      <c r="I22" s="35">
+      <c r="I22" s="37">
         <v>24.7</v>
       </c>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
       <c r="M22" s="14">
         <v>354.8</v>
       </c>
@@ -6544,12 +4650,12 @@
       <c r="H23" s="14">
         <v>11.8</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="37">
         <v>28.1</v>
       </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
       <c r="M23" s="14">
         <v>359.5</v>
       </c>
@@ -6584,12 +4690,12 @@
       <c r="H24" s="14">
         <v>13</v>
       </c>
-      <c r="I24" s="35">
+      <c r="I24" s="37">
         <v>34</v>
       </c>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
       <c r="M24" s="14">
         <v>371.2</v>
       </c>
@@ -6624,12 +4730,12 @@
       <c r="H25" s="14">
         <v>13.2</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="37">
         <v>33.299999999999997</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
       <c r="M25" s="14">
         <v>378.7</v>
       </c>
@@ -6664,12 +4770,12 @@
       <c r="H26" s="13">
         <v>14.5</v>
       </c>
-      <c r="I26" s="36">
+      <c r="I26" s="38">
         <v>32.5</v>
       </c>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
       <c r="M26" s="13">
         <v>394.7</v>
       </c>
@@ -6704,12 +4810,12 @@
       <c r="H27" s="13">
         <v>23</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="38">
         <v>37</v>
       </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
       <c r="M27" s="13">
         <v>431.4</v>
       </c>
@@ -6744,12 +4850,12 @@
       <c r="H28" s="13">
         <v>36.9</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="38">
         <v>43.3</v>
       </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
       <c r="M28" s="13">
         <v>479.6</v>
       </c>
@@ -6784,12 +4890,12 @@
       <c r="H29" s="13">
         <v>34.5</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="38">
         <v>42</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
       <c r="M29" s="13">
         <v>485.6</v>
       </c>
@@ -6824,12 +4930,12 @@
       <c r="H30" s="13">
         <v>25.6</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="38">
         <v>38.200000000000003</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
       <c r="M30" s="13">
         <v>507.3</v>
       </c>
@@ -6864,12 +4970,12 @@
       <c r="H31" s="13">
         <v>22</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="38">
         <v>34.5</v>
       </c>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
       <c r="M31" s="13">
         <v>574.70000000000005</v>
       </c>
@@ -6904,12 +5010,12 @@
       <c r="H32" s="13">
         <v>22.4</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="38">
         <v>34</v>
       </c>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
       <c r="M32" s="13">
         <v>652.20000000000005</v>
       </c>
@@ -6944,12 +5050,12 @@
       <c r="H33" s="13">
         <v>24.3</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="38">
         <v>44.9</v>
       </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
       <c r="M33" s="13">
         <v>808.3</v>
       </c>
@@ -6984,12 +5090,12 @@
       <c r="H34" s="13">
         <v>19.7</v>
       </c>
-      <c r="I34" s="36">
+      <c r="I34" s="38">
         <v>54.6</v>
       </c>
-      <c r="J34" s="36"/>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="13">
         <v>966.3</v>
       </c>
@@ -7023,12 +5129,12 @@
       <c r="H35" s="13">
         <v>15.1</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="38">
         <v>59.8</v>
       </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
       <c r="M35" s="13">
         <v>1135.7</v>
       </c>
@@ -7062,12 +5168,12 @@
       <c r="H36" s="13">
         <v>10.8</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="38">
         <v>65.7</v>
       </c>
-      <c r="J36" s="36"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
       <c r="M36" s="13">
         <v>1284.2</v>
       </c>
@@ -8389,13 +6495,13 @@
       <c r="F69" s="8">
         <v>0.15</v>
       </c>
-      <c r="G69" s="37">
+      <c r="G69" s="39">
         <v>0.83499999999999996</v>
       </c>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
       <c r="L69" s="8">
         <v>117.66500000000001</v>
       </c>
@@ -8426,13 +6532,13 @@
       <c r="F70" s="8">
         <v>0.15</v>
       </c>
-      <c r="G70" s="37">
+      <c r="G70" s="39">
         <v>0.82399999999999995</v>
       </c>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
       <c r="L70" s="8">
         <v>139.79</v>
       </c>
@@ -8463,13 +6569,13 @@
       <c r="F71" s="2">
         <v>76.677999999999997</v>
       </c>
-      <c r="G71" s="37">
+      <c r="G71" s="39">
         <v>0.79600000000000004</v>
       </c>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
       <c r="L71" s="8">
         <v>158.34</v>
       </c>
@@ -8500,13 +6606,13 @@
       <c r="F72" s="2">
         <v>145.27099999999999</v>
       </c>
-      <c r="G72" s="37">
+      <c r="G72" s="39">
         <v>0.75700000000000001</v>
       </c>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
       <c r="L72" s="8">
         <v>137.97499999999999</v>
       </c>
@@ -8537,13 +6643,13 @@
       <c r="F73" s="2">
         <v>224.27699999999999</v>
       </c>
-      <c r="G73" s="37">
+      <c r="G73" s="39">
         <v>0.72199999999999998</v>
       </c>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
       <c r="L73" s="8">
         <v>152.15</v>
       </c>
@@ -8574,13 +6680,13 @@
       <c r="F74" s="2">
         <v>324.488</v>
       </c>
-      <c r="G74" s="37">
+      <c r="G74" s="39">
         <v>0.69799999999999995</v>
       </c>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
       <c r="L74" s="8">
         <v>171.65</v>
       </c>
@@ -8611,13 +6717,13 @@
       <c r="F75" s="2">
         <v>397.05599999999998</v>
       </c>
-      <c r="G75" s="39">
+      <c r="G75" s="41">
         <v>0.65600000000000003</v>
       </c>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="J75" s="39"/>
-      <c r="K75" s="39"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
       <c r="L75" s="7">
         <v>232.52500000000001</v>
       </c>
@@ -8648,14 +6754,14 @@
       <c r="F76" s="6">
         <v>500</v>
       </c>
-      <c r="G76" s="38">
+      <c r="G76" s="40">
         <v>280</v>
       </c>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="38"/>
-      <c r="L76" s="38"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
       <c r="M76" s="4">
         <v>6042</v>
       </c>
@@ -8683,14 +6789,14 @@
       <c r="F77" s="6">
         <v>652</v>
       </c>
-      <c r="G77" s="38">
+      <c r="G77" s="40">
         <v>261</v>
       </c>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="38"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
       <c r="M77" s="4">
         <v>6758</v>
       </c>
@@ -8718,14 +6824,14 @@
       <c r="F78" s="6">
         <v>852</v>
       </c>
-      <c r="G78" s="38">
+      <c r="G78" s="40">
         <v>314</v>
       </c>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="38"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
       <c r="M78" s="4">
         <v>7776</v>
       </c>
@@ -8753,14 +6859,14 @@
       <c r="F79" s="6">
         <v>1125</v>
       </c>
-      <c r="G79" s="38">
+      <c r="G79" s="40">
         <v>338</v>
       </c>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
-      <c r="L79" s="38"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="40"/>
       <c r="M79" s="4">
         <v>8900</v>
       </c>
@@ -8788,14 +6894,14 @@
       <c r="F80" s="6">
         <v>1419</v>
       </c>
-      <c r="G80" s="38">
+      <c r="G80" s="40">
         <v>476</v>
       </c>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
       <c r="M80" s="4">
         <v>9762</v>
       </c>
@@ -8823,14 +6929,14 @@
       <c r="F81" s="6">
         <v>1686</v>
       </c>
-      <c r="G81" s="38">
+      <c r="G81" s="40">
         <v>543</v>
       </c>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="40"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
       <c r="M81" s="4">
         <v>10301</v>
       </c>
@@ -8861,13 +6967,13 @@
       <c r="G82" s="6">
         <v>274</v>
       </c>
-      <c r="H82" s="40">
+      <c r="H82" s="42">
         <v>589</v>
       </c>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="40"/>
-      <c r="L82" s="40"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
       <c r="M82" s="4">
         <v>10755</v>
       </c>
@@ -8898,13 +7004,13 @@
       <c r="G83" s="6">
         <v>633</v>
       </c>
-      <c r="H83" s="38">
+      <c r="H83" s="40">
         <v>473</v>
       </c>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="40"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="40"/>
       <c r="M83" s="4">
         <v>11008</v>
       </c>
@@ -8933,13 +7039,13 @@
       <c r="G84" s="6">
         <v>909</v>
       </c>
-      <c r="H84" s="38">
+      <c r="H84" s="40">
         <v>586</v>
       </c>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
       <c r="M84" s="4">
         <v>11457</v>
       </c>
@@ -8968,13 +7074,13 @@
       <c r="G85" s="6">
         <v>1089</v>
       </c>
-      <c r="H85" s="38">
+      <c r="H85" s="40">
         <v>618</v>
       </c>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
-      <c r="L85" s="38"/>
+      <c r="I85" s="40"/>
+      <c r="J85" s="40"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="40"/>
       <c r="M85" s="4">
         <v>12030</v>
       </c>
@@ -9003,13 +7109,13 @@
       <c r="G86" s="6">
         <v>1233</v>
       </c>
-      <c r="H86" s="38">
+      <c r="H86" s="40">
         <v>941</v>
       </c>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
-      <c r="L86" s="38"/>
+      <c r="I86" s="40"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="40"/>
       <c r="M86" s="4">
         <v>12310</v>
       </c>
@@ -9038,13 +7144,13 @@
       <c r="G87" s="6">
         <v>1475</v>
       </c>
-      <c r="H87" s="38">
+      <c r="H87" s="40">
         <v>984</v>
       </c>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
-      <c r="L87" s="38"/>
+      <c r="I87" s="40"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="40"/>
       <c r="M87" s="4">
         <v>12846</v>
       </c>
@@ -9073,13 +7179,13 @@
       <c r="G88" s="6">
         <v>1755</v>
       </c>
-      <c r="H88" s="38">
+      <c r="H88" s="40">
         <v>800</v>
       </c>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
-      <c r="L88" s="38"/>
+      <c r="I88" s="40"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
       <c r="M88" s="4">
         <v>13301</v>
       </c>
@@ -9108,13 +7214,13 @@
       <c r="G89" s="6">
         <v>2054</v>
       </c>
-      <c r="H89" s="38">
+      <c r="H89" s="40">
         <v>850</v>
       </c>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
+      <c r="I89" s="40"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
       <c r="M89" s="4">
         <v>14112</v>
       </c>
@@ -9143,13 +7249,13 @@
       <c r="G90" s="6">
         <v>2292</v>
       </c>
-      <c r="H90" s="38">
+      <c r="H90" s="40">
         <v>882</v>
       </c>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="38"/>
+      <c r="I90" s="40"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="40"/>
       <c r="M90" s="4">
         <v>15021</v>
       </c>
@@ -9178,13 +7284,13 @@
       <c r="G91" s="6">
         <v>2375</v>
       </c>
-      <c r="H91" s="38">
+      <c r="H91" s="40">
         <v>909</v>
       </c>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
-      <c r="L91" s="38"/>
+      <c r="I91" s="40"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="40"/>
       <c r="M91" s="4">
         <v>15375</v>
       </c>
@@ -9213,13 +7319,13 @@
       <c r="G92" s="6">
         <v>2515</v>
       </c>
-      <c r="H92" s="38">
+      <c r="H92" s="40">
         <v>1350</v>
       </c>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
-      <c r="L92" s="38"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
       <c r="M92" s="4">
         <v>16121</v>
       </c>
@@ -9248,13 +7354,13 @@
       <c r="G93" s="6">
         <v>2732</v>
       </c>
-      <c r="H93" s="38">
+      <c r="H93" s="40">
         <v>1563</v>
       </c>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="38"/>
+      <c r="I93" s="40"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
       <c r="M93" s="4">
         <v>16965.099999999999</v>
       </c>
@@ -9283,13 +7389,13 @@
       <c r="G94" s="6">
         <v>2883.9</v>
       </c>
-      <c r="H94" s="41">
+      <c r="H94" s="43">
         <v>1024.1000000000004</v>
       </c>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
-      <c r="K94" s="41"/>
-      <c r="L94" s="41"/>
+      <c r="I94" s="43"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="L94" s="43"/>
       <c r="M94" s="4">
         <v>17163.5</v>
       </c>
@@ -9318,13 +7424,13 @@
       <c r="G95" s="6">
         <v>2852.3</v>
       </c>
-      <c r="H95" s="41">
+      <c r="H95" s="43">
         <v>1004.0999999999985</v>
       </c>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="41"/>
+      <c r="I95" s="43"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="L95" s="43"/>
       <c r="M95" s="4">
         <v>18056.099999999999</v>
       </c>
@@ -9353,13 +7459,13 @@
       <c r="G96" s="6">
         <v>3082.2597000000001</v>
       </c>
-      <c r="H96" s="41">
+      <c r="H96" s="43">
         <v>1352.4359570000015</v>
       </c>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
+      <c r="I96" s="43"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="L96" s="43"/>
       <c r="M96" s="4">
         <v>19648</v>
       </c>
@@ -9388,13 +7494,13 @@
       <c r="G97" s="6">
         <v>3273.38915</v>
       </c>
-      <c r="H97" s="41">
+      <c r="H97" s="43">
         <v>2160.8464270000004</v>
       </c>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
+      <c r="I97" s="43"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
       <c r="M97" s="4">
         <v>22010.799999999999</v>
       </c>
@@ -9423,13 +7529,13 @@
       <c r="G98" s="6">
         <v>3635.8831</v>
       </c>
-      <c r="H98" s="41">
+      <c r="H98" s="43">
         <v>2241.9223869999987</v>
       </c>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
+      <c r="I98" s="43"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="43"/>
+      <c r="L98" s="43"/>
       <c r="M98" s="4">
         <v>23548</v>
       </c>
@@ -9458,13 +7564,13 @@
       <c r="G99" s="6">
         <v>3961.8825499999998</v>
       </c>
-      <c r="H99" s="41">
+      <c r="H99" s="43">
         <v>2338.7968450000008</v>
       </c>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
+      <c r="I99" s="43"/>
+      <c r="J99" s="43"/>
+      <c r="K99" s="43"/>
+      <c r="L99" s="43"/>
       <c r="M99" s="4">
         <v>24792</v>
       </c>
@@ -9493,13 +7599,13 @@
       <c r="G100" s="6">
         <v>4195.2577499999998</v>
       </c>
-      <c r="H100" s="41">
+      <c r="H100" s="43">
         <v>1014.2700199999999</v>
       </c>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="41"/>
-      <c r="L100" s="41"/>
+      <c r="I100" s="43"/>
+      <c r="J100" s="43"/>
+      <c r="K100" s="43"/>
+      <c r="L100" s="43"/>
       <c r="M100" s="4">
         <v>25135</v>
       </c>
@@ -9528,13 +7634,13 @@
       <c r="G101" s="6">
         <v>4656.8182500000003</v>
       </c>
-      <c r="H101" s="41">
+      <c r="H101" s="43">
         <v>1008.6903200000015</v>
       </c>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
+      <c r="I101" s="43"/>
+      <c r="J101" s="43"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="43"/>
       <c r="M101" s="4">
         <v>27195</v>
       </c>
@@ -9563,13 +7669,13 @@
       <c r="G102" s="6">
         <v>5213.8604500000001</v>
       </c>
-      <c r="H102" s="41">
+      <c r="H102" s="43">
         <v>882.5050599999995</v>
       </c>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
+      <c r="I102" s="43"/>
+      <c r="J102" s="43"/>
+      <c r="K102" s="43"/>
+      <c r="L102" s="43"/>
       <c r="M102" s="4">
         <v>29384</v>
       </c>
@@ -9598,13 +7704,13 @@
       <c r="G103" s="6">
         <v>5446.5115999999998</v>
       </c>
-      <c r="H103" s="41">
+      <c r="H103" s="43">
         <v>3306.6738049999985</v>
       </c>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
+      <c r="I103" s="43"/>
+      <c r="J103" s="43"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="43"/>
       <c r="M103" s="4">
         <v>33866</v>
       </c>
@@ -9633,13 +7739,13 @@
       <c r="G104" s="6">
         <v>5741.3209999999999</v>
       </c>
-      <c r="H104" s="41">
+      <c r="H104" s="43">
         <v>3512.7470950000024</v>
       </c>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="41"/>
+      <c r="I104" s="43"/>
+      <c r="J104" s="43"/>
+      <c r="K104" s="43"/>
+      <c r="L104" s="43"/>
       <c r="M104" s="4">
         <v>36015</v>
       </c>
@@ -9668,13 +7774,13 @@
       <c r="G105" s="6">
         <v>6121.8842999999997</v>
       </c>
-      <c r="H105" s="41">
+      <c r="H105" s="43">
         <v>1237.3341549999968</v>
       </c>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="41"/>
+      <c r="I105" s="43"/>
+      <c r="J105" s="43"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="43"/>
       <c r="M105" s="4">
         <v>35416</v>
       </c>
@@ -9703,13 +7809,13 @@
       <c r="G106" s="6">
         <v>6516.0963000000002</v>
       </c>
-      <c r="H106" s="41">
+      <c r="H106" s="43">
         <v>1072.5231300000014</v>
       </c>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="41"/>
+      <c r="I106" s="43"/>
+      <c r="J106" s="43"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="43"/>
       <c r="M106" s="4">
         <v>36914</v>
       </c>
@@ -9738,13 +7844,13 @@
       <c r="G107" s="6">
         <v>6704.6973500000004</v>
       </c>
-      <c r="H107" s="41">
+      <c r="H107" s="43">
         <v>1018.4935799999948</v>
       </c>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
+      <c r="I107" s="43"/>
+      <c r="J107" s="43"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="43"/>
       <c r="M107" s="4">
         <v>38449</v>
       </c>
@@ -9773,13 +7879,13 @@
       <c r="G108" s="4">
         <v>7526.2340999999997</v>
       </c>
-      <c r="H108" s="41">
+      <c r="H108" s="43">
         <v>4446.7160549999971</v>
       </c>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
+      <c r="I108" s="43"/>
+      <c r="J108" s="43"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="43"/>
       <c r="M108" s="4">
         <v>44978</v>
       </c>
@@ -9808,13 +7914,13 @@
       <c r="G109" s="4">
         <v>8690.8922000000002</v>
       </c>
-      <c r="H109" s="41">
+      <c r="H109" s="43">
         <v>4221.9979149999999</v>
       </c>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="41"/>
+      <c r="I109" s="43"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="43"/>
       <c r="M109" s="4">
         <v>48608</v>
       </c>
@@ -9843,13 +7949,13 @@
       <c r="G110" s="4">
         <v>9247.6473499999993</v>
       </c>
-      <c r="H110" s="41">
+      <c r="H110" s="43">
         <v>3280.5756949999995</v>
       </c>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="41"/>
-      <c r="L110" s="41"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
       <c r="M110" s="4">
         <v>50220</v>
       </c>
@@ -9878,13 +7984,13 @@
       <c r="G111" s="4">
         <v>9939.8822</v>
       </c>
-      <c r="H111" s="41">
+      <c r="H111" s="43">
         <v>3433.0337750000035</v>
       </c>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-      <c r="K111" s="41"/>
-      <c r="L111" s="41"/>
+      <c r="I111" s="43"/>
+      <c r="J111" s="43"/>
+      <c r="K111" s="43"/>
+      <c r="L111" s="43"/>
       <c r="M111" s="4">
         <v>52194</v>
       </c>
@@ -9913,13 +8019,13 @@
       <c r="G112" s="4">
         <v>9899.1536500000002</v>
       </c>
-      <c r="H112" s="41">
+      <c r="H112" s="43">
         <v>3575</v>
       </c>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="41"/>
-      <c r="L112" s="41"/>
+      <c r="I112" s="43"/>
+      <c r="J112" s="43"/>
+      <c r="K112" s="43"/>
+      <c r="L112" s="43"/>
       <c r="M112" s="4">
         <v>54921</v>
       </c>
@@ -9948,13 +8054,13 @@
       <c r="G113" s="4">
         <v>10322.695900000001</v>
       </c>
-      <c r="H113" s="41">
+      <c r="H113" s="43">
         <v>3776</v>
       </c>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="41"/>
-      <c r="L113" s="41"/>
+      <c r="I113" s="43"/>
+      <c r="J113" s="43"/>
+      <c r="K113" s="43"/>
+      <c r="L113" s="43"/>
       <c r="M113" s="4">
         <v>58022</v>
       </c>
@@ -9983,13 +8089,13 @@
       <c r="G114" s="4">
         <v>11025.237999999999</v>
       </c>
-      <c r="H114" s="41">
+      <c r="H114" s="43">
         <v>3967</v>
       </c>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="41"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="43"/>
+      <c r="K114" s="43"/>
+      <c r="L114" s="43"/>
       <c r="M114" s="4">
         <v>60198</v>
       </c>
@@ -10018,13 +8124,13 @@
       <c r="G115" s="4">
         <v>11787.5671</v>
       </c>
-      <c r="H115" s="41">
+      <c r="H115" s="43">
         <v>4118</v>
       </c>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
-      <c r="K115" s="41"/>
-      <c r="L115" s="41"/>
+      <c r="I115" s="43"/>
+      <c r="J115" s="43"/>
+      <c r="K115" s="43"/>
+      <c r="L115" s="43"/>
       <c r="M115" s="4">
         <v>63789</v>
       </c>
@@ -10053,13 +8159,13 @@
       <c r="G116" s="4">
         <v>13156.85915</v>
       </c>
-      <c r="H116" s="41">
+      <c r="H116" s="43">
         <v>4212</v>
       </c>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
-      <c r="K116" s="41"/>
-      <c r="L116" s="41"/>
+      <c r="I116" s="43"/>
+      <c r="J116" s="43"/>
+      <c r="K116" s="43"/>
+      <c r="L116" s="43"/>
       <c r="M116" s="4">
         <v>67818</v>
       </c>
@@ -10088,13 +8194,13 @@
       <c r="G117" s="4">
         <v>15600.934649999999</v>
       </c>
-      <c r="H117" s="41">
+      <c r="H117" s="43">
         <v>4322</v>
       </c>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
+      <c r="I117" s="43"/>
+      <c r="J117" s="43"/>
+      <c r="K117" s="43"/>
+      <c r="L117" s="43"/>
       <c r="M117" s="4">
         <v>73198</v>
       </c>
@@ -10123,13 +8229,13 @@
       <c r="G118" s="4">
         <v>16507.853500000001</v>
       </c>
-      <c r="H118" s="41">
+      <c r="H118" s="43">
         <v>4351</v>
       </c>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-      <c r="K118" s="41"/>
-      <c r="L118" s="41"/>
+      <c r="I118" s="43"/>
+      <c r="J118" s="43"/>
+      <c r="K118" s="43"/>
+      <c r="L118" s="43"/>
       <c r="M118" s="4">
         <v>73250</v>
       </c>
@@ -10157,13 +8263,13 @@
       <c r="G119" s="2">
         <v>17210</v>
       </c>
-      <c r="H119" s="41">
+      <c r="H119" s="43">
         <v>4330</v>
       </c>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
-      <c r="K119" s="41"/>
-      <c r="L119" s="41"/>
+      <c r="I119" s="43"/>
+      <c r="J119" s="43"/>
+      <c r="K119" s="43"/>
+      <c r="L119" s="43"/>
       <c r="M119" s="2">
         <v>74171</v>
       </c>
@@ -10265,13 +8371,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B230"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B152" sqref="B152:B228"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
-    <sheetView workbookViewId="2"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12126,13 +10229,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03F5545-827B-4AFC-9B98-49A8F05D5B56}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q78" sqref="Q78"/>
-    </sheetView>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="1">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
-    <sheetView topLeftCell="F19" workbookViewId="2"/>
+    <sheetView topLeftCell="F19" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -15080,7 +13180,7 @@
       <c r="A78" s="5">
         <v>2019</v>
       </c>
-      <c r="B78" s="42">
+      <c r="B78" s="33">
         <v>2.6</v>
       </c>
       <c r="C78" s="31">
@@ -15108,14 +13208,14 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="34" t="s">
         <v>276</v>
       </c>
-      <c r="B79" s="43">
+      <c r="B79" s="34">
         <f>_xlfn.STDEV.S(B2:B51)</f>
         <v>4.8564793664479513</v>
       </c>
-      <c r="C79" s="43">
+      <c r="C79" s="34">
         <f>_xlfn.STDEV.S(C2:C51)</f>
         <v>4.9548194896380737</v>
       </c>
@@ -15130,11 +13230,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6464F2BD-4D15-4131-AE79-82BFE2E89945}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
-    <sheetView workbookViewId="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
-    <sheetView tabSelected="1" workbookViewId="2">
+    <sheetView tabSelected="1" workbookViewId="1">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
